--- a/ref/ingestion/demo/model_input_variables_se_demo.xlsx
+++ b/ref/ingestion/demo/model_input_variables_se_demo.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/sisepuede/ref/ingestion/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D3252-8659-E248-9355-2A62D798841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E37040-4D6D-2D4E-BBAF-E1A65BED7B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="19900" windowHeight="15400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>subsector</t>
   </si>
@@ -173,56 +160,59 @@
     <t>Economy</t>
   </si>
   <si>
+    <t>gdp_mmm_usd</t>
+  </si>
+  <si>
+    <t>va_commercial_mmm_usd</t>
+  </si>
+  <si>
+    <t>va_industrial_mmm_usd</t>
+  </si>
+  <si>
+    <t>va_manufacturing_mmm_usd</t>
+  </si>
+  <si>
+    <t>va_mining_mmm_usd</t>
+  </si>
+  <si>
     <t>General</t>
   </si>
   <si>
-    <t>gdp_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_commercial_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_industrial_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_manufacturing_mmm_usd</t>
-  </si>
-  <si>
-    <t>va_mining_mmm_usd</t>
+    <t>area_gnrl_country_ha</t>
+  </si>
+  <si>
+    <t>climate_change_factor_gnrl_hydropower_availability</t>
+  </si>
+  <si>
+    <t>elasticity_gnrl_rate_occupancy_to_gdppc</t>
+  </si>
+  <si>
+    <t>frac_gnrl_eating_red_meat</t>
+  </si>
+  <si>
+    <t>limit_gnrl_annual_emissions_mt_ch4</t>
+  </si>
+  <si>
+    <t>limit_gnrl_annual_emissions_mt_co2</t>
+  </si>
+  <si>
+    <t>limit_gnrl_annual_emissions_mt_n2o</t>
+  </si>
+  <si>
+    <t>occrateinit_gnrl_occupancy</t>
   </si>
   <si>
     <t>population_gnrl_rural</t>
   </si>
   <si>
     <t>population_gnrl_urban</t>
-  </si>
-  <si>
-    <t>area_gnrl_country_ha</t>
-  </si>
-  <si>
-    <t>frac_gnrl_eating_red_meat</t>
-  </si>
-  <si>
-    <t>elasticity_gnrl_rate_occupancy_to_gdppc</t>
-  </si>
-  <si>
-    <t>occrateinit_gnrl_occupancy</t>
-  </si>
-  <si>
-    <t>limit_gnrl_annual_emissions_mt_ch4</t>
-  </si>
-  <si>
-    <t>limit_gnrl_annual_emissions_mt_n2o</t>
-  </si>
-  <si>
-    <t>limit_gnrl_annual_emissions_mt_co2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,17 +223,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,12 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,27 +359,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,24 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AS16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,7 +719,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -897,7 +841,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1019,7 +963,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1141,7 +1085,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1263,7 +1207,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1382,10 +1326,10 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1504,132 +1448,132 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1638,120 +1582,120 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="K9">
-        <v>0.99</v>
+        <v>-0.1</v>
       </c>
       <c r="L9">
-        <v>0.98</v>
+        <v>-0.1</v>
       </c>
       <c r="M9">
-        <v>0.97</v>
+        <v>-0.1</v>
       </c>
       <c r="N9">
-        <v>0.96</v>
+        <v>-0.1</v>
       </c>
       <c r="O9">
-        <v>0.95</v>
+        <v>-0.1</v>
       </c>
       <c r="P9">
-        <v>0.94</v>
+        <v>-0.1</v>
       </c>
       <c r="Q9">
-        <v>0.93</v>
+        <v>-0.1</v>
       </c>
       <c r="R9">
-        <v>0.92</v>
+        <v>-0.1</v>
       </c>
       <c r="S9">
-        <v>0.91</v>
+        <v>-0.1</v>
       </c>
       <c r="T9">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="U9">
-        <v>0.89</v>
+        <v>-0.1</v>
       </c>
       <c r="V9">
-        <v>0.88</v>
+        <v>-0.1</v>
       </c>
       <c r="W9">
-        <v>0.87</v>
+        <v>-0.1</v>
       </c>
       <c r="X9">
-        <v>0.86</v>
+        <v>-0.1</v>
       </c>
       <c r="Y9">
-        <v>0.85</v>
+        <v>-0.1</v>
       </c>
       <c r="Z9">
-        <v>0.84</v>
+        <v>-0.1</v>
       </c>
       <c r="AA9">
-        <v>0.83</v>
+        <v>-0.1</v>
       </c>
       <c r="AB9">
-        <v>0.82</v>
+        <v>-0.1</v>
       </c>
       <c r="AC9">
-        <v>0.81</v>
+        <v>-0.1</v>
       </c>
       <c r="AD9">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="AE9">
-        <v>0.79</v>
+        <v>-0.1</v>
       </c>
       <c r="AF9">
-        <v>0.78</v>
+        <v>-0.1</v>
       </c>
       <c r="AG9">
-        <v>0.77</v>
+        <v>-0.1</v>
       </c>
       <c r="AH9">
-        <v>0.76</v>
+        <v>-0.1</v>
       </c>
       <c r="AI9">
-        <v>0.75</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ9">
-        <v>0.74</v>
+        <v>-0.1</v>
       </c>
       <c r="AK9">
-        <v>0.73</v>
+        <v>-0.1</v>
       </c>
       <c r="AL9">
-        <v>0.72</v>
+        <v>-0.1</v>
       </c>
       <c r="AM9">
-        <v>0.71</v>
+        <v>-0.1</v>
       </c>
       <c r="AN9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AO9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AP9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AR9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AS9">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1760,120 +1704,120 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1939122</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1935241</v>
+        <v>0.99</v>
       </c>
       <c r="L10">
-        <v>1930482</v>
+        <v>0.98</v>
       </c>
       <c r="M10">
-        <v>1924785</v>
+        <v>0.97</v>
       </c>
       <c r="N10">
-        <v>1917502</v>
+        <v>0.96</v>
       </c>
       <c r="O10">
-        <v>1909226</v>
+        <v>0.95</v>
       </c>
       <c r="P10">
-        <v>1899964</v>
+        <v>0.94</v>
       </c>
       <c r="Q10">
-        <v>1889752</v>
+        <v>0.93</v>
       </c>
       <c r="R10">
-        <v>1878616</v>
+        <v>0.92</v>
       </c>
       <c r="S10">
-        <v>1866592</v>
+        <v>0.91</v>
       </c>
       <c r="T10">
-        <v>1853714</v>
+        <v>0.9</v>
       </c>
       <c r="U10">
-        <v>1840003</v>
+        <v>0.89</v>
       </c>
       <c r="V10">
-        <v>1825469</v>
+        <v>0.88</v>
       </c>
       <c r="W10">
-        <v>1810127</v>
+        <v>0.87</v>
       </c>
       <c r="X10">
-        <v>1793994</v>
+        <v>0.86</v>
       </c>
       <c r="Y10">
-        <v>1777085</v>
+        <v>0.85</v>
       </c>
       <c r="Z10">
-        <v>1759419</v>
+        <v>0.84</v>
       </c>
       <c r="AA10">
-        <v>1741025</v>
+        <v>0.83</v>
       </c>
       <c r="AB10">
-        <v>1721923</v>
+        <v>0.82</v>
       </c>
       <c r="AC10">
-        <v>1702153</v>
+        <v>0.81</v>
       </c>
       <c r="AD10">
-        <v>1681739</v>
+        <v>0.8</v>
       </c>
       <c r="AE10">
-        <v>1674776</v>
+        <v>0.79</v>
       </c>
       <c r="AF10">
-        <v>1667323</v>
+        <v>0.78</v>
       </c>
       <c r="AG10">
-        <v>1659388</v>
+        <v>0.77</v>
       </c>
       <c r="AH10">
-        <v>1650984</v>
+        <v>0.76</v>
       </c>
       <c r="AI10">
-        <v>1642122</v>
+        <v>0.75</v>
       </c>
       <c r="AJ10">
-        <v>1632809</v>
+        <v>0.74</v>
       </c>
       <c r="AK10">
-        <v>1623058</v>
+        <v>0.73</v>
       </c>
       <c r="AL10">
-        <v>1612873</v>
+        <v>0.72</v>
       </c>
       <c r="AM10">
-        <v>1602249</v>
+        <v>0.71</v>
       </c>
       <c r="AN10">
-        <v>1591194</v>
+        <v>0.7</v>
       </c>
       <c r="AO10">
-        <v>1579717</v>
+        <v>0.7</v>
       </c>
       <c r="AP10">
-        <v>1567831</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10">
-        <v>1555549</v>
+        <v>0.7</v>
       </c>
       <c r="AR10">
-        <v>1542882</v>
+        <v>0.7</v>
       </c>
       <c r="AS10">
-        <v>1529843</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1882,117 +1826,117 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>2908682</v>
+        <v>-999</v>
       </c>
       <c r="K11">
-        <v>2964104</v>
+        <v>-999</v>
       </c>
       <c r="L11">
-        <v>3019472</v>
+        <v>-999</v>
       </c>
       <c r="M11">
-        <v>3074656</v>
+        <v>-999</v>
       </c>
       <c r="N11">
-        <v>3128555</v>
+        <v>-999</v>
       </c>
       <c r="O11">
-        <v>3182044</v>
+        <v>-999</v>
       </c>
       <c r="P11">
-        <v>3235075</v>
+        <v>-999</v>
       </c>
       <c r="Q11">
-        <v>3287652</v>
+        <v>-999</v>
       </c>
       <c r="R11">
-        <v>3339763</v>
+        <v>-999</v>
       </c>
       <c r="S11">
-        <v>3391415</v>
+        <v>-999</v>
       </c>
       <c r="T11">
-        <v>3442611</v>
+        <v>-999</v>
       </c>
       <c r="U11">
-        <v>3493338</v>
+        <v>-999</v>
       </c>
       <c r="V11">
-        <v>3543557</v>
+        <v>-999</v>
       </c>
       <c r="W11">
-        <v>3593238</v>
+        <v>-999</v>
       </c>
       <c r="X11">
-        <v>3642352</v>
+        <v>-999</v>
       </c>
       <c r="Y11">
-        <v>3690869</v>
+        <v>-999</v>
       </c>
       <c r="Z11">
-        <v>3738764</v>
+        <v>-999</v>
       </c>
       <c r="AA11">
-        <v>3786038</v>
+        <v>-999</v>
       </c>
       <c r="AB11">
-        <v>3832667</v>
+        <v>-999</v>
       </c>
       <c r="AC11">
-        <v>3878676</v>
+        <v>-999</v>
       </c>
       <c r="AD11">
-        <v>3924057</v>
+        <v>-999</v>
       </c>
       <c r="AE11">
-        <v>3954723</v>
+        <v>-999</v>
       </c>
       <c r="AF11">
-        <v>3984621</v>
+        <v>-999</v>
       </c>
       <c r="AG11">
-        <v>4013735</v>
+        <v>-999</v>
       </c>
       <c r="AH11">
-        <v>4042064</v>
+        <v>-999</v>
       </c>
       <c r="AI11">
-        <v>4069605</v>
+        <v>-999</v>
       </c>
       <c r="AJ11">
-        <v>4096345</v>
+        <v>-999</v>
       </c>
       <c r="AK11">
-        <v>4122279</v>
+        <v>-999</v>
       </c>
       <c r="AL11">
-        <v>4147386</v>
+        <v>-999</v>
       </c>
       <c r="AM11">
-        <v>4171623</v>
+        <v>-999</v>
       </c>
       <c r="AN11">
-        <v>4194965</v>
+        <v>-999</v>
       </c>
       <c r="AO11">
-        <v>4217411</v>
+        <v>-999</v>
       </c>
       <c r="AP11">
-        <v>4238952</v>
+        <v>-999</v>
       </c>
       <c r="AQ11">
-        <v>4259587</v>
+        <v>-999</v>
       </c>
       <c r="AR11">
-        <v>4279316</v>
+        <v>-999</v>
       </c>
       <c r="AS11">
-        <v>4298132</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -2004,117 +1948,117 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="K12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="L12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="M12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="N12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="O12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="P12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="Q12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="R12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="S12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="T12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="U12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="V12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="W12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="X12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="Y12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="Z12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AA12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AB12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AC12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AD12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AE12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AF12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AG12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AH12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AI12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AJ12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AK12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AL12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AM12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AN12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AO12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AP12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AQ12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AR12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
       <c r="AS12">
-        <v>3.145207224</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -2236,7 +2180,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -2248,117 +2192,117 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="K14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="L14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="M14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="N14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="O14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="P14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="Q14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="R14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="S14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="T14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="U14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="V14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="W14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="X14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="Y14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="Z14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AA14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AB14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AC14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AD14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AE14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AF14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AG14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AH14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AI14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AJ14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AK14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AL14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AM14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AN14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AO14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AP14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AQ14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AR14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
       <c r="AS14">
-        <v>-999</v>
+        <v>3.145207224</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -2370,398 +2314,237 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>-999</v>
+        <v>1939122</v>
       </c>
       <c r="K15">
-        <v>-999</v>
+        <v>1935241</v>
       </c>
       <c r="L15">
-        <v>-999</v>
+        <v>1930482</v>
       </c>
       <c r="M15">
-        <v>-999</v>
+        <v>1924785</v>
       </c>
       <c r="N15">
-        <v>-999</v>
+        <v>1917502</v>
       </c>
       <c r="O15">
-        <v>-999</v>
+        <v>1909226</v>
       </c>
       <c r="P15">
-        <v>-999</v>
+        <v>1899964</v>
       </c>
       <c r="Q15">
-        <v>-999</v>
+        <v>1889752</v>
       </c>
       <c r="R15">
-        <v>-999</v>
+        <v>1878616</v>
       </c>
       <c r="S15">
-        <v>-999</v>
+        <v>1866592</v>
       </c>
       <c r="T15">
-        <v>-999</v>
+        <v>1853714</v>
       </c>
       <c r="U15">
-        <v>-999</v>
+        <v>1840003</v>
       </c>
       <c r="V15">
-        <v>-999</v>
+        <v>1825469</v>
       </c>
       <c r="W15">
-        <v>-999</v>
+        <v>1810127</v>
       </c>
       <c r="X15">
-        <v>-999</v>
+        <v>1793994</v>
       </c>
       <c r="Y15">
-        <v>-999</v>
+        <v>1777085</v>
       </c>
       <c r="Z15">
-        <v>-999</v>
+        <v>1759419</v>
       </c>
       <c r="AA15">
-        <v>-999</v>
+        <v>1741025</v>
       </c>
       <c r="AB15">
-        <v>-999</v>
+        <v>1721923</v>
       </c>
       <c r="AC15">
-        <v>-999</v>
+        <v>1702153</v>
       </c>
       <c r="AD15">
-        <v>-999</v>
+        <v>1681739</v>
       </c>
       <c r="AE15">
-        <v>-999</v>
+        <v>1674776</v>
       </c>
       <c r="AF15">
-        <v>-999</v>
+        <v>1667323</v>
       </c>
       <c r="AG15">
-        <v>-999</v>
+        <v>1659388</v>
       </c>
       <c r="AH15">
-        <v>-999</v>
+        <v>1650984</v>
       </c>
       <c r="AI15">
-        <v>-999</v>
+        <v>1642122</v>
       </c>
       <c r="AJ15">
-        <v>-999</v>
+        <v>1632809</v>
       </c>
       <c r="AK15">
-        <v>-999</v>
+        <v>1623058</v>
       </c>
       <c r="AL15">
-        <v>-999</v>
+        <v>1612873</v>
       </c>
       <c r="AM15">
-        <v>-999</v>
+        <v>1602249</v>
       </c>
       <c r="AN15">
-        <v>-999</v>
+        <v>1591194</v>
       </c>
       <c r="AO15">
-        <v>-999</v>
+        <v>1579717</v>
       </c>
       <c r="AP15">
-        <v>-999</v>
+        <v>1567831</v>
       </c>
       <c r="AQ15">
-        <v>-999</v>
+        <v>1555549</v>
       </c>
       <c r="AR15">
-        <v>-999</v>
+        <v>1542882</v>
       </c>
       <c r="AS15">
-        <v>-999</v>
+        <v>1529843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2908682</v>
+      </c>
+      <c r="K16">
+        <v>2964104</v>
+      </c>
+      <c r="L16">
+        <v>3019472</v>
+      </c>
+      <c r="M16">
+        <v>3074656</v>
+      </c>
+      <c r="N16">
+        <v>3128555</v>
+      </c>
+      <c r="O16">
+        <v>3182044</v>
+      </c>
+      <c r="P16">
+        <v>3235075</v>
+      </c>
+      <c r="Q16">
+        <v>3287652</v>
+      </c>
+      <c r="R16">
+        <v>3339763</v>
+      </c>
+      <c r="S16">
+        <v>3391415</v>
+      </c>
+      <c r="T16">
+        <v>3442611</v>
+      </c>
+      <c r="U16">
+        <v>3493338</v>
+      </c>
+      <c r="V16">
+        <v>3543557</v>
+      </c>
+      <c r="W16">
+        <v>3593238</v>
+      </c>
+      <c r="X16">
+        <v>3642352</v>
+      </c>
+      <c r="Y16">
+        <v>3690869</v>
+      </c>
+      <c r="Z16">
+        <v>3738764</v>
+      </c>
+      <c r="AA16">
+        <v>3786038</v>
+      </c>
+      <c r="AB16">
+        <v>3832667</v>
+      </c>
+      <c r="AC16">
+        <v>3878676</v>
+      </c>
+      <c r="AD16">
+        <v>3924057</v>
+      </c>
+      <c r="AE16">
+        <v>3954723</v>
+      </c>
+      <c r="AF16">
+        <v>3984621</v>
+      </c>
+      <c r="AG16">
+        <v>4013735</v>
+      </c>
+      <c r="AH16">
+        <v>4042064</v>
+      </c>
+      <c r="AI16">
+        <v>4069605</v>
+      </c>
+      <c r="AJ16">
+        <v>4096345</v>
+      </c>
+      <c r="AK16">
+        <v>4122279</v>
+      </c>
+      <c r="AL16">
+        <v>4147386</v>
+      </c>
+      <c r="AM16">
+        <v>4171623</v>
+      </c>
+      <c r="AN16">
+        <v>4194965</v>
+      </c>
+      <c r="AO16">
+        <v>4217411</v>
+      </c>
+      <c r="AP16">
+        <v>4238952</v>
+      </c>
+      <c r="AQ16">
+        <v>4259587</v>
+      </c>
+      <c r="AR16">
+        <v>4279316</v>
+      </c>
+      <c r="AS16">
+        <v>4298132</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS12">
-    <sortCondition ref="A2:A12"/>
-    <sortCondition ref="B2:B12"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.41499999999999898</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0.38999999999999901</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0.36499999999999899</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0.33999999999999903</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0.314999999999999</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0.28999999999999898</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0.26499999999999901</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0.23999999999999899</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0.214999999999999</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0.189999999999999</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0.16499999999999901</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0.13999999999999899</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>